--- a/biology/Botanique/Calliandra_surinamensis/Calliandra_surinamensis.xlsx
+++ b/biology/Botanique/Calliandra_surinamensis/Calliandra_surinamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pompon du marin
 Calliandra surinamensis, le Pompon du marin, est un arbuste à feuillage persistant de la famille des Fabaceae originaire du nord d'Amérique du Sud (Guyane, Surinam).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliandra surinamensis est un arbuste tropical à feuilles persistantes à faible ramification qui porte le nom du Suriname, un pays du nord de l'Amérique du Sud. La plante a généralement plusieurs troncs ramifiés de manière complexe et atteint une hauteur d'environ 5 mètres, bien que de nombreuses sources suggèrent qu'elle n'atteint qu'une hauteur de 3 mètres. Laissé non taillé, il pousse de longues branches minces qui finissent par tomber sur le sol. Les feuilles se ferment et tombent du crépuscule jusqu'au matin quand elles rouvrent à nouveau. Calliandra surinamensis contiendrait des lectines toxiques pour les cellules cancéreuses, bien que des recherches supplémentaires soient nécessaires. Calliandra surinamensis contient trois composés importants: la myrectine qui contient des propriétés antioxydantes et anti-inflammatoires, le lupéol qui contient des propriétés anti-inflammatoires et anti-cancéreuses et l'acide férulique qui contient des propriétés antimicrobiennes.
 </t>
